--- a/EAGLE/DazzelitePL.xlsx
+++ b/EAGLE/DazzelitePL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dazzelite\Parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{860618BA-E99D-4C7A-B458-251D2984303D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4439B64A-DBAE-41B6-8CC1-FB94F11D9F43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2124" yWindow="1536" windowWidth="16356" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="10908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Assy" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="90" uniqueCount="66">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="91" uniqueCount="67">
   <si>
     <t>D1</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>Dazzelite PCB Parts With Upduino Rev 3.0 Board and Other Components</t>
+  </si>
+  <si>
+    <t>235-M</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1200,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H9" sqref="H9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1311,14 +1314,14 @@
       <c r="C7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="12">
-        <v>232</v>
+      <c r="D7" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="12">
-        <v>0.48</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1411,7 +1414,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="7">
         <f>SUM(F4:F12)</f>
-        <v>82.269999999999982</v>
+        <v>82.53</v>
       </c>
     </row>
   </sheetData>
